--- a/准备工作/应急系统.xlsx
+++ b/准备工作/应急系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="149">
   <si>
     <t>应急资源调查报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,18 +138,6 @@
   </si>
   <si>
     <t>项目状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已冻结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,6 +611,26 @@
       </rPr>
       <t>E）</t>
     </r>
+  </si>
+  <si>
+    <t>项目进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已冻结3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -753,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -787,6 +795,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,43 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1139,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,384 +1271,391 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="26" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24" t="s">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="26" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="7" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="7" t="s">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="7" t="s">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="7" t="s">
+      <c r="C28" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="26" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="7" t="s">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="7" t="s">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="C37" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="24" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="C43" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="7" t="s">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="7" t="s">
+      <c r="C46" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="D46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C48" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="7" t="s">
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24" t="s">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="7" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="7" t="s">
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="26" t="s">
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1649,372 +1665,347 @@
       <c r="D54" s="10"/>
     </row>
     <row r="56" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="D58" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="24"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="25"/>
+      <c r="B63" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="22"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="21"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23"/>
-      <c r="B63" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="19"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="19"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="11" t="s">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="19"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="11" t="s">
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="19"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="19"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="11" t="s">
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="19"/>
-      <c r="B70" s="13" t="s">
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="21"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="19"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="11" t="s">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="21"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="19"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="11" t="s">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="19"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="19"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="11" t="s">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="19"/>
-      <c r="B75" s="13" t="s">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C77" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="21"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="22"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="19"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="11" t="s">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="21"/>
+      <c r="B82" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="13" t="s">
+      <c r="C82" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="21"/>
+      <c r="B83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="19"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="11"/>
-    </row>
-    <row r="79" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="19"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="20"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="11" t="s">
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="21"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="19"/>
-      <c r="B82" s="12" t="s">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="21"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="19"/>
-      <c r="B83" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="21"/>
+      <c r="B86" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="19"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="19"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="11" t="s">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="21"/>
+      <c r="B87" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="19"/>
-      <c r="B86" s="12" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="21"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="21"/>
+      <c r="B89" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="21"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="21"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="22"/>
+      <c r="B92" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="19"/>
-      <c r="B87" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="11"/>
-    </row>
-    <row r="88" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="19"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="11"/>
-    </row>
-    <row r="89" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="19"/>
-      <c r="B89" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="19"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="19"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="20"/>
-      <c r="B92" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="D92" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A53"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B40:B42"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="A81:A92"/>
     <mergeCell ref="A64:A80"/>
@@ -2028,6 +2019,31 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A53"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,7 +2066,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="28">
+      <c r="B1" s="13">
         <v>43512</v>
       </c>
       <c r="C1">
@@ -2058,7 +2074,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="28">
+      <c r="B2" s="13">
         <v>43513</v>
       </c>
       <c r="C2">
@@ -2066,14 +2082,21 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="28">
+      <c r="B3" s="13">
         <v>43514</v>
       </c>
       <c r="C3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="13">
+        <v>43515</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+    </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/准备工作/应急系统.xlsx
+++ b/准备工作/应急系统.xlsx
@@ -22,12 +22,12 @@
     <definedName name="_Toc536602141" localSheetId="0">Sheet1!$C$76</definedName>
     <definedName name="_Toc536602142" localSheetId="0">Sheet1!$B$77</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
   <si>
     <t>应急资源调查报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,30 @@
   </si>
   <si>
     <t>已冻结3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计及培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,52 +820,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1148,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1295,7 +1319,7 @@
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1306,7 +1330,7 @@
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1314,7 +1338,7 @@
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1322,7 +1346,7 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
@@ -1345,13 +1369,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1359,19 +1383,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1379,43 +1403,43 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1423,21 +1447,21 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1445,45 +1469,45 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -1491,21 +1515,21 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -1513,27 +1537,27 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -1541,27 +1565,27 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -1569,27 +1593,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -1597,19 +1621,19 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -1617,25 +1641,25 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -1643,17 +1667,17 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="7" t="s">
         <v>88</v>
       </c>
@@ -1665,10 +1689,10 @@
       <c r="D54" s="10"/>
     </row>
     <row r="56" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -1679,16 +1703,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -1699,32 +1723,32 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="24"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="24"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="11" t="s">
         <v>94</v>
       </c>
@@ -1733,7 +1757,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="25"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="12" t="s">
         <v>91</v>
       </c>
@@ -1745,10 +1769,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -1757,48 +1781,48 @@
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -1807,40 +1831,40 @@
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -1849,16 +1873,16 @@
       <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="26" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="23" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -1867,31 +1891,31 @@
       <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -1903,7 +1927,7 @@
       <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="12" t="s">
         <v>122</v>
       </c>
@@ -1913,8 +1937,8 @@
       <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
-      <c r="B83" s="26" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="23" t="s">
         <v>137</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -1923,23 +1947,23 @@
       <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="21"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D85" s="11"/>
     </row>
     <row r="86" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="12" t="s">
         <v>126</v>
       </c>
@@ -1949,8 +1973,8 @@
       <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="21"/>
-      <c r="B87" s="26" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -1959,19 +1983,19 @@
       <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="21"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="21"/>
-      <c r="B89" s="26" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="15" t="s">
         <v>138</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -1979,23 +2003,23 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="21"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="19"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="21"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="22"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="12" t="s">
         <v>132</v>
       </c>
@@ -2006,6 +2030,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A53"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="A81:A92"/>
     <mergeCell ref="A64:A80"/>
@@ -2019,31 +2068,6 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A53"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2052,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C61"/>
+  <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,52 +2087,105 @@
     <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="13">
         <v>43512</v>
       </c>
       <c r="C1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13">
         <v>43513</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="13">
         <v>43514</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13">
         <v>43515</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="13">
+        <v>43516</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="13">
+        <v>43517</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="13">
+        <v>43518</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="13">
+        <v>43520</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2154,6 +2231,9 @@
     <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
